--- a/reconstruction-tools-assessment/supplementary material/S2_table.xlsx
+++ b/reconstruction-tools-assessment/supplementary material/S2_table.xlsx
@@ -1,30 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16729"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Research_Projects\Review_reconstruction\manuscript\supplementary material\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996AB0D9-EEE3-46F6-A4DE-09093A6114B3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9402"/>
+    <workbookView xWindow="3402" yWindow="3288" windowWidth="17280" windowHeight="9444" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S2 Table" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="200">
   <si>
     <t>Continuous software maintenance</t>
   </si>
@@ -354,12 +360,282 @@
   </si>
   <si>
     <t>Similarity with manually-curated models</t>
+  </si>
+  <si>
+    <t>mass and charge-balance reactions</t>
+  </si>
+  <si>
+    <t>obtain charged formula for each metabolite</t>
+  </si>
+  <si>
+    <t>The tool provide a way of detecting metabolites which are not charged according to pKa but the user has to fix them manually</t>
+  </si>
+  <si>
+    <t>determine reaction directionality</t>
+  </si>
+  <si>
+    <t>The tool points out which reactions should be checked but they should be fixed manually by the user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The tool does no provide any assistance to detect metabolites which are not charged according to internal pH of the cell. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The tool does not provide any assistance to detect or fix mass or charge imbalances. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">add subsystem information </t>
+  </si>
+  <si>
+    <t>The tool does not provide any assistance to determine reaction directionality</t>
+  </si>
+  <si>
+    <t>The tool does not provide any assistance to add subsystems information</t>
+  </si>
+  <si>
+    <t>The tool allows to edit the model to add subsystems information manually</t>
+  </si>
+  <si>
+    <t>The tool does not provide any assistance to add gene-reaction associations</t>
+  </si>
+  <si>
+    <t>add metabolite identifiers</t>
+  </si>
+  <si>
+    <t>The tool allows the user to add identifiers in a manual way</t>
+  </si>
+  <si>
+    <t>add confidence score</t>
+  </si>
+  <si>
+    <t>The tool does not allow to add confidence scores</t>
+  </si>
+  <si>
+    <t>add spontaneuos reactions</t>
+  </si>
+  <si>
+    <t>The tool does not add metabolite identifiers</t>
+  </si>
+  <si>
+    <t>The tool does not provide any assistance to add spontaneuos reactions</t>
+  </si>
+  <si>
+    <t>add transport reactions</t>
+  </si>
+  <si>
+    <t>visualize metabolic network</t>
+  </si>
+  <si>
+    <t>The tool allows to visualize the entire network but the layout is not entirely user-friendly. Pathways can be explored individually.</t>
+  </si>
+  <si>
+    <t>The tool allows to visualize the entire network in a user-friendly way. Pathways can be explored individually.</t>
+  </si>
+  <si>
+    <t>The tool allow to visualize each pathway</t>
+  </si>
+  <si>
+    <t>The tools does not allow the user any visualization</t>
+  </si>
+  <si>
+    <t>The tool can be explored only with plain text (reaction equations display)</t>
+  </si>
+  <si>
+    <t>add biomass composition</t>
+  </si>
+  <si>
+    <t>The tool adds a generic biomass equation</t>
+  </si>
+  <si>
+    <t>The tool allows the user to add a biomass equation in a manual way</t>
+  </si>
+  <si>
+    <t>The tool does not provide any assistance to add a biomass equation</t>
+  </si>
+  <si>
+    <t>The tool is able to create a biomass composition automatically based on experimental measurements. Alternativelly, a pre-defined generic biomass equation can be used</t>
+  </si>
+  <si>
+    <t>add ATP-maintenance reaction</t>
+  </si>
+  <si>
+    <t>The tool automatically adds an ATP-maintenance reaction</t>
+  </si>
+  <si>
+    <t>The tool allows to add an ATP-maintenance reaction in a manual way</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The tool does not allow to add an ATP-maintenance reaction because models cannot be edited. </t>
+  </si>
+  <si>
+    <t>add demand and sink reactions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The tool automatically add sink and demand reactions to unblock reactions if neccesary </t>
+  </si>
+  <si>
+    <t>The tool allows the addition of sink and demand reactions in a manual way</t>
+  </si>
+  <si>
+    <t>The tool does not allow to add sink and demand reactions</t>
+  </si>
+  <si>
+    <t>determine substrate and cofactor usage</t>
+  </si>
+  <si>
+    <t>The tool does not provide assistance and the user should modify reactions manually.</t>
+  </si>
+  <si>
+    <t>add reaction localization</t>
+  </si>
+  <si>
+    <t>The tool is not able to assist the user with reaction localization</t>
+  </si>
+  <si>
+    <t>detect dead-ends</t>
+  </si>
+  <si>
+    <t>perform gap-filling analysis</t>
+  </si>
+  <si>
+    <t>The tool is able to automatically determine substrate and cofactor usage for the entire network</t>
+  </si>
+  <si>
+    <t>The tool is able to automatically determine substrate and cofactor usage for the draft reconstruction. However, reactions added by the user in a manual way have to be checked</t>
+  </si>
+  <si>
+    <t>The tool provide assistance to determine substrate and cofactor usage. The user should make a medium effort to manually check reactions</t>
+  </si>
+  <si>
+    <t>The tool is able to balance all reactions of the network automatically</t>
+  </si>
+  <si>
+    <t>The tool is able to balance all reactions of the network automatically. New reactions have to be balanced by the user</t>
+  </si>
+  <si>
+    <t>The tool is able to assist the user by pointing the reactions which are not balanced</t>
+  </si>
+  <si>
+    <t>The tool is able to obtain charged formula for each metabolite according to internal pH of compartments.</t>
+  </si>
+  <si>
+    <t>The tool is able to obtain charged formula for each metabolite according to internal pH of compartments. However, new metabolites have to be charged manually</t>
+  </si>
+  <si>
+    <t>The tool automatically detemine the directionality of each reaction based on free Gibbs energy. New reactions have to be added defined manually</t>
+  </si>
+  <si>
+    <t>The tool does not provide assistance but suggest external tools to perform this task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The tool is able to assisst the user with reaction localization.  </t>
+  </si>
+  <si>
+    <t>This tool does not provide assistance but suggest external tools</t>
+  </si>
+  <si>
+    <t>The tool automatically add subsystems information to each reaction. There is no assistance for new reactions</t>
+  </si>
+  <si>
+    <t>The tool automatically add subsystems information to each reaction. There is assistance for new reactions</t>
+  </si>
+  <si>
+    <t>The tool automatically determine the compartment of each reaction and therefore all the metabolites in the draft network have a well-defined compartment. However, there is no assistance for new reactions. This is also applicable to eukaryotes where reaction localization is crucial.</t>
+  </si>
+  <si>
+    <t>The tool automatically determine the compartment of each reaction and therefore all the metabolites in the draft network have a well-defined compartment. There is assistance to determine reaction localization for new reactions. This is also applicable to eukaryotes where reaction localization is crucial.</t>
+  </si>
+  <si>
+    <t>The tool automatically detemine the directionality of each reaction based on free Gibbs energy. There is assistance the determine directionality of new reactions</t>
+  </si>
+  <si>
+    <t>add gene-reaction associations</t>
+  </si>
+  <si>
+    <t>The tool automatically add gene-reaction associations to the draft network. There is assistance for new reactions</t>
+  </si>
+  <si>
+    <t>The tool automatically add gene-reaction associations to the draft network. There is no assistance for new reactions</t>
+  </si>
+  <si>
+    <t>The tools is able to assisst the user with the addition of gene-reaction associations</t>
+  </si>
+  <si>
+    <t>The tool automatically adds identifiers to metabolites in the draft network from well-known databases (BiGG, KEGG, ChEBI, PubChem, MetaCyc, SEED, MetaNetX, etc.) automatically. There is assistance for new metabolites</t>
+  </si>
+  <si>
+    <t>The too automaticallyl adds identifiers to metabolites in the draft network from well-known databases (BiGG, KEGG, ChEBI, PubChem, MetaCyc, SEED, MetaNetX, etc.). There is no assistance for new metabolites</t>
+  </si>
+  <si>
+    <t>The tool allows to automatically determine confidence scores. There is assistance for new reactions</t>
+  </si>
+  <si>
+    <t>There is assistance to add confidence scores in a manual way. The user should add them manually</t>
+  </si>
+  <si>
+    <t>The tool allows to automatically determine confidence scores. There is no assistance for new reactions</t>
+  </si>
+  <si>
+    <t>Some spontaneous reactions could be added during the gap-filling procedure</t>
+  </si>
+  <si>
+    <t>The tool assist the user to add spontaneous reactions</t>
+  </si>
+  <si>
+    <t>The tool automatically adds spontaneuos reactions.</t>
+  </si>
+  <si>
+    <t>The tool automatically adds both transport reactions with and without gene associations. There is assistance to add new transport reactions</t>
+  </si>
+  <si>
+    <t>The tool automatically adds both transport reactions with and without gene associations. There is no assistance to add new transport reactions</t>
+  </si>
+  <si>
+    <t>The tool automatically adds just transport reactions with gene associations. There is no assistance to add new transport reactions</t>
+  </si>
+  <si>
+    <t>The tool automatically adds just transport reactions with gene associations. There is assistance to add new transport reactions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The tool does provides assistance to add transport reactions. Each of the suggested reactions should be confirmed by the user. </t>
+  </si>
+  <si>
+    <t>determine growth requirements</t>
+  </si>
+  <si>
+    <t>This tool automatically search for experimental data in the literature</t>
+  </si>
+  <si>
+    <t>This tool allows the user to collect experimental data in files which can be used for further simulations</t>
+  </si>
+  <si>
+    <t>This tool does not assist the user with the determination of nutritional requirements</t>
+  </si>
+  <si>
+    <t>This tool automatically detect dead-ends</t>
+  </si>
+  <si>
+    <t>This tool assist the user with the detection of dead-ends</t>
+  </si>
+  <si>
+    <t>This tool does not assist the user with the detection of dead-ends</t>
+  </si>
+  <si>
+    <t>This tool automaticaly performs gap-filling</t>
+  </si>
+  <si>
+    <t>This tool assist the user with the gap-filling procedure</t>
+  </si>
+  <si>
+    <t>This tools does not assist the user with the gap-filling procedure</t>
+  </si>
+  <si>
+    <t>This tool automatically performs gap-filling but manual intervention is needed to create input files</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -377,7 +653,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -501,11 +777,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -569,6 +876,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -883,11 +1199,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C113"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="102" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" topLeftCell="A182" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A189" sqref="A189:A193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1908,28 +2224,836 @@
       <c r="B113" s="14">
         <v>5</v>
       </c>
-      <c r="C113" s="7" t="s">
+      <c r="C113" s="6" t="s">
         <v>108</v>
       </c>
     </row>
+    <row r="114" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A114" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="B114" s="12">
+        <v>1</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A115" s="19"/>
+      <c r="B115" s="13">
+        <v>2</v>
+      </c>
+      <c r="C115" s="11"/>
+    </row>
+    <row r="116" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A116" s="19"/>
+      <c r="B116" s="13">
+        <v>3</v>
+      </c>
+      <c r="C116" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A117" s="19"/>
+      <c r="B117" s="13">
+        <v>4</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A118" s="20"/>
+      <c r="B118" s="14">
+        <v>5</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A119" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B119" s="12">
+        <v>1</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A120" s="19"/>
+      <c r="B120" s="13">
+        <v>2</v>
+      </c>
+      <c r="C120" s="6"/>
+    </row>
+    <row r="121" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A121" s="19"/>
+      <c r="B121" s="13">
+        <v>3</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A122" s="19"/>
+      <c r="B122" s="13">
+        <v>4</v>
+      </c>
+      <c r="C122" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A123" s="20"/>
+      <c r="B123" s="14">
+        <v>5</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A124" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B124" s="12">
+        <v>1</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A125" s="19"/>
+      <c r="B125" s="13">
+        <v>2</v>
+      </c>
+      <c r="C125" s="6"/>
+    </row>
+    <row r="126" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A126" s="19"/>
+      <c r="B126" s="13">
+        <v>3</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A127" s="19"/>
+      <c r="B127" s="13">
+        <v>4</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A128" s="20"/>
+      <c r="B128" s="14">
+        <v>5</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A129" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B129" s="12">
+        <v>1</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A130" s="19"/>
+      <c r="B130" s="13">
+        <v>2</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A131" s="19"/>
+      <c r="B131" s="13">
+        <v>3</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A132" s="19"/>
+      <c r="B132" s="13">
+        <v>4</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A133" s="20"/>
+      <c r="B133" s="14">
+        <v>5</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A134" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B134" s="12">
+        <v>1</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A135" s="19"/>
+      <c r="B135" s="13">
+        <v>2</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A136" s="19"/>
+      <c r="B136" s="13">
+        <v>3</v>
+      </c>
+      <c r="C136" s="11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A137" s="19"/>
+      <c r="B137" s="13">
+        <v>4</v>
+      </c>
+      <c r="C137" s="11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A138" s="20"/>
+      <c r="B138" s="14">
+        <v>5</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A139" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B139" s="12">
+        <v>1</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A140" s="19"/>
+      <c r="B140" s="13">
+        <v>2</v>
+      </c>
+      <c r="C140" s="6"/>
+    </row>
+    <row r="141" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A141" s="19"/>
+      <c r="B141" s="13">
+        <v>3</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A142" s="19"/>
+      <c r="B142" s="13">
+        <v>4</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A143" s="20"/>
+      <c r="B143" s="14">
+        <v>5</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A144" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="B144" s="12">
+        <v>1</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A145" s="19"/>
+      <c r="B145" s="13">
+        <v>2</v>
+      </c>
+      <c r="C145" s="6"/>
+    </row>
+    <row r="146" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A146" s="19"/>
+      <c r="B146" s="13">
+        <v>3</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A147" s="19"/>
+      <c r="B147" s="13">
+        <v>4</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A148" s="20"/>
+      <c r="B148" s="14">
+        <v>5</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A149" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="B149" s="12">
+        <v>1</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A150" s="19"/>
+      <c r="B150" s="13">
+        <v>2</v>
+      </c>
+      <c r="C150" s="6"/>
+    </row>
+    <row r="151" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A151" s="19"/>
+      <c r="B151" s="13">
+        <v>3</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A152" s="19"/>
+      <c r="B152" s="13">
+        <v>4</v>
+      </c>
+      <c r="C152" s="11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A153" s="20"/>
+      <c r="B153" s="14">
+        <v>5</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A154" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="B154" s="12">
+        <v>1</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A155" s="19"/>
+      <c r="B155" s="13">
+        <v>2</v>
+      </c>
+      <c r="C155" s="6"/>
+    </row>
+    <row r="156" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A156" s="19"/>
+      <c r="B156" s="13">
+        <v>3</v>
+      </c>
+      <c r="C156" s="11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A157" s="19"/>
+      <c r="B157" s="13">
+        <v>4</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A158" s="20"/>
+      <c r="B158" s="14">
+        <v>5</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A159" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="B159" s="12">
+        <v>1</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A160" s="19"/>
+      <c r="B160" s="13">
+        <v>2</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A161" s="19"/>
+      <c r="B161" s="13">
+        <v>3</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A162" s="19"/>
+      <c r="B162" s="13">
+        <v>4</v>
+      </c>
+      <c r="C162" s="11"/>
+    </row>
+    <row r="163" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A163" s="20"/>
+      <c r="B163" s="14">
+        <v>5</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A164" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B164" s="22">
+        <v>1</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A165" s="19"/>
+      <c r="B165" s="23">
+        <v>2</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A166" s="19"/>
+      <c r="B166" s="23">
+        <v>3</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A167" s="19"/>
+      <c r="B167" s="23">
+        <v>4</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A168" s="20"/>
+      <c r="B168" s="24">
+        <v>5</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A169" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B169" s="12">
+        <v>1</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A170" s="19"/>
+      <c r="B170" s="13">
+        <v>2</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A171" s="19"/>
+      <c r="B171" s="13">
+        <v>3</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A172" s="19"/>
+      <c r="B172" s="13">
+        <v>4</v>
+      </c>
+      <c r="C172" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A173" s="20"/>
+      <c r="B173" s="14">
+        <v>5</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A174" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="B174" s="12">
+        <v>1</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A175" s="19"/>
+      <c r="B175" s="13">
+        <v>2</v>
+      </c>
+      <c r="C175" s="6"/>
+    </row>
+    <row r="176" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A176" s="19"/>
+      <c r="B176" s="13">
+        <v>3</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A177" s="19"/>
+      <c r="B177" s="13">
+        <v>4</v>
+      </c>
+      <c r="C177" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A178" s="20"/>
+      <c r="B178" s="14">
+        <v>5</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A179" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="B179" s="12">
+        <v>1</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A180" s="19"/>
+      <c r="B180" s="13">
+        <v>2</v>
+      </c>
+      <c r="C180" s="6"/>
+    </row>
+    <row r="181" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A181" s="19"/>
+      <c r="B181" s="13">
+        <v>3</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A182" s="19"/>
+      <c r="B182" s="13">
+        <v>4</v>
+      </c>
+      <c r="C182" s="11"/>
+    </row>
+    <row r="183" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A183" s="20"/>
+      <c r="B183" s="14">
+        <v>5</v>
+      </c>
+      <c r="C183" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A184" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="B184" s="12">
+        <v>1</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A185" s="19"/>
+      <c r="B185" s="13">
+        <v>2</v>
+      </c>
+      <c r="C185" s="6"/>
+    </row>
+    <row r="186" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A186" s="19"/>
+      <c r="B186" s="13">
+        <v>3</v>
+      </c>
+      <c r="C186" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A187" s="19"/>
+      <c r="B187" s="13">
+        <v>4</v>
+      </c>
+      <c r="C187" s="11"/>
+    </row>
+    <row r="188" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A188" s="20"/>
+      <c r="B188" s="14">
+        <v>5</v>
+      </c>
+      <c r="C188" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A189" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="B189" s="12">
+        <v>1</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A190" s="19"/>
+      <c r="B190" s="13">
+        <v>2</v>
+      </c>
+      <c r="C190" s="6"/>
+    </row>
+    <row r="191" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A191" s="19"/>
+      <c r="B191" s="13">
+        <v>3</v>
+      </c>
+      <c r="C191" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A192" s="19"/>
+      <c r="B192" s="13">
+        <v>4</v>
+      </c>
+      <c r="C192" s="11"/>
+    </row>
+    <row r="193" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A193" s="20"/>
+      <c r="B193" s="14">
+        <v>5</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A194" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="B194" s="12">
+        <v>1</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A195" s="19"/>
+      <c r="B195" s="13">
+        <v>2</v>
+      </c>
+      <c r="C195" s="6"/>
+    </row>
+    <row r="196" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A196" s="19"/>
+      <c r="B196" s="13">
+        <v>3</v>
+      </c>
+      <c r="C196" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A197" s="19"/>
+      <c r="B197" s="13">
+        <v>4</v>
+      </c>
+      <c r="C197" s="11"/>
+    </row>
+    <row r="198" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A198" s="20"/>
+      <c r="B198" s="14">
+        <v>5</v>
+      </c>
+      <c r="C198" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A199" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="B199" s="12">
+        <v>1</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A200" s="19"/>
+      <c r="B200" s="13">
+        <v>2</v>
+      </c>
+      <c r="C200" s="6"/>
+    </row>
+    <row r="201" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A201" s="19"/>
+      <c r="B201" s="13">
+        <v>3</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A202" s="19"/>
+      <c r="B202" s="13">
+        <v>4</v>
+      </c>
+      <c r="C202" s="11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A203" s="20"/>
+      <c r="B203" s="14">
+        <v>5</v>
+      </c>
+      <c r="C203" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A59:A63"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="A94:A98"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="A104:A108"/>
-    <mergeCell ref="A109:A113"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="A74:A78"/>
-    <mergeCell ref="A79:A83"/>
+  <mergeCells count="41">
+    <mergeCell ref="A194:A198"/>
+    <mergeCell ref="A199:A203"/>
+    <mergeCell ref="A119:A123"/>
+    <mergeCell ref="A124:A128"/>
+    <mergeCell ref="A129:A133"/>
+    <mergeCell ref="A134:A138"/>
+    <mergeCell ref="A139:A143"/>
+    <mergeCell ref="A144:A148"/>
+    <mergeCell ref="A149:A153"/>
+    <mergeCell ref="A154:A158"/>
+    <mergeCell ref="A159:A163"/>
+    <mergeCell ref="A164:A168"/>
+    <mergeCell ref="A169:A173"/>
+    <mergeCell ref="A174:A178"/>
     <mergeCell ref="A84:A88"/>
     <mergeCell ref="A89:A93"/>
     <mergeCell ref="A34:A38"/>
@@ -1937,6 +3061,26 @@
     <mergeCell ref="A44:A48"/>
     <mergeCell ref="A49:A53"/>
     <mergeCell ref="A54:A58"/>
+    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="A79:A83"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="A179:A183"/>
+    <mergeCell ref="A184:A188"/>
+    <mergeCell ref="A189:A193"/>
+    <mergeCell ref="A114:A118"/>
+    <mergeCell ref="A94:A98"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="A104:A108"/>
+    <mergeCell ref="A109:A113"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
